--- a/ПКМ/resdata PKM Temp=-5, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=-5, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>948.6294601883625</v>
       </c>
       <c r="E3" t="n">
-        <v>442.8550008693169</v>
+        <v>442.8743261263618</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.62882643471572</v>
+        <v>13.62890062799843</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>542.2505823352293</v>
+        <v>542.2502557237682</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>966.0204668979961</v>
+        <v>966.0198225239992</v>
       </c>
       <c r="E5" t="n">
-        <v>456.4838273040327</v>
+        <v>456.5032267543602</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781617345075388</v>
+        <v>0.7781618136777227</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202248187548612</v>
+        <v>0.1202249474249163</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03194673866682162</v>
+        <v>0.03194667029054159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06310124333572587</v>
+        <v>0.06310110629562631</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565464735052552</v>
+        <v>0.006565462311193054</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466.2328538418922</v>
+        <v>466.2353864431195</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>878.9755534823565</v>
+        <v>878.9781686228636</v>
       </c>
       <c r="E6" t="n">
-        <v>456.4838273040327</v>
+        <v>456.5032267543602</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781617345075388</v>
+        <v>0.7781618136777227</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202248187548612</v>
+        <v>0.1202249474249163</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03194673866682162</v>
+        <v>0.03194667029054159</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06310124333572587</v>
+        <v>0.06310110629562631</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565464735052552</v>
+        <v>0.006565462311193054</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.3182575897686</v>
+        <v>291.316825687226</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>684.5012106730196</v>
+        <v>684.4994080856299</v>
       </c>
       <c r="E7" t="n">
-        <v>456.4838273040327</v>
+        <v>456.5032267543602</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781617345075388</v>
+        <v>0.7781618136777227</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202248187548612</v>
+        <v>0.1202249474249163</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03194673866682162</v>
+        <v>0.03194667029054159</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06310124333572587</v>
+        <v>0.06310110629562631</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565464735052552</v>
+        <v>0.006565462311193054</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.508616534905</v>
+        <v>224.431592720243</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.2599189040561</v>
+        <v>612.1769794676991</v>
       </c>
       <c r="E8" t="n">
-        <v>456.4838273040327</v>
+        <v>456.5032267543602</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781617345075388</v>
+        <v>0.7781618136777227</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202248187548612</v>
+        <v>0.1202249474249163</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03194673866682162</v>
+        <v>0.03194667029054159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06310124333572587</v>
+        <v>0.06310110629562631</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565464735052552</v>
+        <v>0.006565462311193054</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223.5890387401669</v>
+        <v>223.5119262881917</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.2726297836584</v>
+        <v>611.189610509129</v>
       </c>
       <c r="E9" t="n">
-        <v>456.4838273040327</v>
+        <v>456.5032267543602</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781617345075388</v>
+        <v>0.7781618136777227</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202248187548612</v>
+        <v>0.1202249474249163</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03194673866682162</v>
+        <v>0.03194667029054159</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06310124333572587</v>
+        <v>0.06310110629562631</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565464735052552</v>
+        <v>0.006565462311193054</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.7347676433306</v>
+        <v>164.6072902190139</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>548.4426056389412</v>
+        <v>548.3070022237988</v>
       </c>
       <c r="E10" t="n">
-        <v>456.4838273040327</v>
+        <v>456.5032267543602</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781617345075388</v>
+        <v>0.7781618136777227</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202248187548612</v>
+        <v>0.1202249474249163</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03194673866682162</v>
+        <v>0.03194667029054159</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06310124333572587</v>
+        <v>0.06310110629562631</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565464735052552</v>
+        <v>0.006565462311193054</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.0356211087404</v>
+        <v>100.9547054980221</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.1282596313072</v>
+        <v>481.0429038158825</v>
       </c>
       <c r="E11" t="n">
-        <v>456.4838273040327</v>
+        <v>456.5032267543602</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781617345075388</v>
+        <v>0.7781618136777227</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202248187548612</v>
+        <v>0.1202249474249163</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03194673866682162</v>
+        <v>0.03194667029054159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06310124333572587</v>
+        <v>0.06310110629562631</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565464735052552</v>
+        <v>0.006565462311193054</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.91888782577662</v>
+        <v>12.91895815426024</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7099386089391153</v>
+        <v>0.709942473738199</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97393984110842</v>
+        <v>11.97393273864854</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97393984110842</v>
+        <v>11.97393273864854</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97393984110842</v>
+        <v>11.97393273864854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97393984110842</v>
+        <v>11.97393273864854</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762705246422635</v>
+        <v>4.762702421377293</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944169</v>
+        <v>0.0509488958594416</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6499896367282884</v>
+        <v>0.6500256496534479</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6822702842408921</v>
+        <v>0.6822997842377806</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9526864231694924</v>
+        <v>0.9526980143773793</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.1345308840027</v>
+        <v>55.1379108196639</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.67539933539022</v>
+        <v>33.67689641781746</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8491050698635035</v>
+        <v>0.8491049692932983</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.27978807038683</v>
+        <v>13.28029344058207</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.796720219124879</v>
+        <v>0.7967193916590749</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.67310487256274</v>
+        <v>5.673731193707507</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7804935859485632</v>
+        <v>0.7804779063218769</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.506238605662912</v>
+        <v>2.506989767556874</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4936119288430634</v>
+        <v>0.4936745966216415</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1572745888586515</v>
+        <v>0.1572954560594335</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1749631040769875</v>
+        <v>0.1749860448252161</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8989014551859308</v>
+        <v>0.8989028594625773</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42052.47886427086</v>
+        <v>42050.98698859633</v>
       </c>
       <c r="C2" t="n">
-        <v>42477.25137805138</v>
+        <v>42475.74443292559</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91955.14611819477</v>
+        <v>91955.67133937852</v>
       </c>
       <c r="C3" t="n">
-        <v>92883.98597797452</v>
+        <v>92884.51650442275</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39862.18639366438</v>
+        <v>39862.35363212173</v>
       </c>
       <c r="C4" t="n">
-        <v>40264.83474107513</v>
+        <v>40265.00366880983</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.0022795298049</v>
+        <v>516.0018324810168</v>
       </c>
       <c r="C5" t="n">
-        <v>521.2144237674797</v>
+        <v>521.2139722030472</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33273.46472702437</v>
+        <v>33272.6096634708</v>
       </c>
       <c r="C6" t="n">
-        <v>33609.56033032765</v>
+        <v>33608.69662976848</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37772.54015336125</v>
+        <v>37773.05540621332</v>
       </c>
       <c r="C7" t="n">
-        <v>38154.08096299117</v>
+        <v>38154.60142041749</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.80618880474431</v>
+        <v>52.80627089397305</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.53135950873481</v>
+        <v>71.53116928044753</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.253576594273946</v>
+        <v>6.253684733332477</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>516.7107037710545</v>
+        <v>516.7135907239307</v>
       </c>
       <c r="C3" t="n">
-        <v>6.365963973622738</v>
+        <v>6.365874353347269</v>
       </c>
       <c r="D3" t="n">
-        <v>3458.760258027316</v>
+        <v>3458.769391920922</v>
       </c>
       <c r="E3" t="n">
-        <v>57.6089343215674</v>
+        <v>57.61120323516597</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.3084431055058</v>
+        <v>283.3064811957945</v>
       </c>
       <c r="C4" t="n">
-        <v>6.742965034376975</v>
+        <v>6.742767806466077</v>
       </c>
       <c r="D4" t="n">
-        <v>2775.904143611393</v>
+        <v>2775.906604985626</v>
       </c>
       <c r="E4" t="n">
-        <v>57.6089343215674</v>
+        <v>57.61120323516597</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.5500446746497</v>
+        <v>282.5589465431165</v>
       </c>
       <c r="C5" t="n">
-        <v>6.742965034376975</v>
+        <v>6.742767806466077</v>
       </c>
       <c r="D5" t="n">
-        <v>1250.233141375977</v>
+        <v>1250.280755159406</v>
       </c>
       <c r="E5" t="n">
-        <v>57.6089343215674</v>
+        <v>57.61120323516597</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.0300925452308</v>
+        <v>160.8896360369339</v>
       </c>
       <c r="C6" t="n">
-        <v>6.742965034376975</v>
+        <v>6.742767806466077</v>
       </c>
       <c r="D6" t="n">
-        <v>683.5177983616377</v>
+        <v>682.9113682902155</v>
       </c>
       <c r="E6" t="n">
-        <v>57.6089343215674</v>
+        <v>57.61120323516597</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.3066511135408</v>
+        <v>154.1684636097162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5337332649576266</v>
+        <v>0.5318035865928293</v>
       </c>
       <c r="D7" t="n">
-        <v>650.788543786394</v>
+        <v>650.1906071789172</v>
       </c>
       <c r="E7" t="n">
-        <v>57.6089343215674</v>
+        <v>57.61120323516597</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.0029932059518</v>
+        <v>167.8552242869084</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5263351560701151</v>
+        <v>0.5256717471144695</v>
       </c>
       <c r="D8" t="n">
-        <v>2783.661660732113</v>
+        <v>2783.467778825835</v>
       </c>
       <c r="E8" t="n">
-        <v>13.66469868499592</v>
+        <v>13.67884085462079</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.3066509983103</v>
+        <v>154.1684634947506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5337332649576266</v>
+        <v>0.5318035865928293</v>
       </c>
       <c r="D9" t="n">
-        <v>2751.00859487492</v>
+        <v>2750.848347265646</v>
       </c>
       <c r="E9" t="n">
-        <v>13.66469868499592</v>
+        <v>13.67884085462079</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.3066511135408</v>
+        <v>154.1684636097162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5337332649576266</v>
+        <v>0.5318035865928293</v>
       </c>
       <c r="D10" t="n">
-        <v>655.0798373415134</v>
+        <v>654.6464251998445</v>
       </c>
       <c r="E10" t="n">
-        <v>71.27363300656332</v>
+        <v>71.29004408978676</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.3066511135408</v>
+        <v>154.1684636097162</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5337332649576266</v>
+        <v>0.5318035865928293</v>
       </c>
       <c r="D11" t="n">
-        <v>655.0798373415134</v>
+        <v>654.6464251998445</v>
       </c>
       <c r="E11" t="n">
-        <v>75.39787235624866</v>
+        <v>75.42551376297909</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5337332649576266</v>
+        <v>0.5318035865928293</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6118068192239</v>
+        <v>251.6101864633344</v>
       </c>
       <c r="E12" t="n">
-        <v>75.40226738170324</v>
+        <v>75.42847287834414</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.37962929889619</v>
+        <v>54.37422915796719</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>228.2413429931415</v>
+        <v>228.2187628989331</v>
       </c>
       <c r="E13" t="n">
-        <v>71.27506833434271</v>
+        <v>71.29001537530714</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.67572831105178</v>
+        <v>53.66942006434169</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>225.2981456276898</v>
+        <v>225.2717699545801</v>
       </c>
       <c r="E14" t="n">
-        <v>59.45869148380395</v>
+        <v>59.4734746230425</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>88.28871689380043</v>
+        <v>88.28151467837387</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06574224300859884</v>
+        <v>0.06572406631796045</v>
       </c>
       <c r="D15" t="n">
-        <v>369.8408799426358</v>
+        <v>369.8105898583949</v>
       </c>
       <c r="E15" t="n">
-        <v>55.02892043640468</v>
+        <v>55.02959349661562</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.14014767447577</v>
+        <v>56.13928606706139</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06574118011675537</v>
+        <v>0.06572389757894399</v>
       </c>
       <c r="D16" t="n">
-        <v>235.0683120257297</v>
+        <v>235.0646928638396</v>
       </c>
       <c r="E16" t="n">
-        <v>55.02843353003124</v>
+        <v>55.03099511881022</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>580.1132921236062</v>
+        <v>580.1113021747249</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>73.0774014536043</v>
+        <v>73.0771507779255</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.89562599081826</v>
+        <v>71.89234164800975</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>301.026986023556</v>
+        <v>301.0132344802169</v>
       </c>
       <c r="E19" t="n">
-        <v>73.0774014536043</v>
+        <v>73.0771507779255</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>106.5913060620262</v>
+        <v>106.5916817316865</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1277125976056498</v>
+        <v>0.1277198542163147</v>
       </c>
       <c r="D20" t="n">
-        <v>2673.862631986583</v>
+        <v>2673.81576304291</v>
       </c>
       <c r="E20" t="n">
-        <v>16.96416995689204</v>
+        <v>16.97194271178985</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105.1011335611107</v>
+        <v>105.1027759538639</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1213269677253674</v>
+        <v>0.1213338615054989</v>
       </c>
       <c r="D21" t="n">
-        <v>440.7011579065085</v>
+        <v>440.7080969084907</v>
       </c>
       <c r="E21" t="n">
-        <v>16.96416995689204</v>
+        <v>16.97194271178985</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.8816012618756</v>
+        <v>85.87484568451445</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>359.5862644834731</v>
+        <v>359.5579788810621</v>
       </c>
       <c r="E22" t="n">
-        <v>580.1132921236062</v>
+        <v>580.1113021747249</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>580.1132921236062</v>
+        <v>580.1113021747249</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.92275093067155</v>
+        <v>50.92233719900708</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>580.1132921236062</v>
+        <v>580.1113021747249</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.63040310139274</v>
+        <v>89.62313943818202</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06920236106168298</v>
+        <v>0.06918322770311626</v>
       </c>
       <c r="D25" t="n">
-        <v>2591.565796473417</v>
+        <v>2591.484087351207</v>
       </c>
       <c r="E25" t="n">
-        <v>38.06426692996812</v>
+        <v>38.05749252775454</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>513.805200338909</v>
+        <v>513.8088575043824</v>
       </c>
       <c r="C26" t="n">
-        <v>5.737698291606237</v>
+        <v>5.737651615349119</v>
       </c>
       <c r="D26" t="n">
-        <v>3458.760258027316</v>
+        <v>3458.769391920922</v>
       </c>
       <c r="E26" t="n">
-        <v>45.79389750014821</v>
+        <v>45.793348816809</v>
       </c>
       <c r="F26" t="n">
-        <v>6.948035968566925</v>
+        <v>6.948051172838207</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>200.1286981031805</v>
+        <v>200.1476567768485</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3904959785802933</v>
+        <v>0.3905699545237717</v>
       </c>
       <c r="D27" t="n">
-        <v>2861.673954081586</v>
+        <v>2861.709920166345</v>
       </c>
       <c r="E27" t="n">
-        <v>45.79389750014821</v>
+        <v>45.793348816809</v>
       </c>
       <c r="F27" t="n">
-        <v>7.184744076199787</v>
+        <v>7.18473445307512</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.2808985317698</v>
+        <v>165.199776974883</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4436356780418095</v>
+        <v>0.4438197039096763</v>
       </c>
       <c r="D28" t="n">
-        <v>2783.661660732113</v>
+        <v>2783.467778825835</v>
       </c>
       <c r="E28" t="n">
-        <v>13.66469868499592</v>
+        <v>13.67884085462079</v>
       </c>
       <c r="F28" t="n">
-        <v>6.956112518419465</v>
+        <v>6.955485258542576</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.5888899051372</v>
+        <v>191.5759093237026</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3904959785802933</v>
+        <v>0.3905699545237717</v>
       </c>
       <c r="D29" t="n">
-        <v>2843.745268395387</v>
+        <v>2843.713915555879</v>
       </c>
       <c r="E29" t="n">
-        <v>59.45859618514413</v>
+        <v>59.47218967142979</v>
       </c>
       <c r="F29" t="n">
-        <v>7.146515868688991</v>
+        <v>7.146362939167823</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>106.5912994549386</v>
+        <v>106.5915799657163</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1277161176220002</v>
+        <v>0.1277173459162652</v>
       </c>
       <c r="D30" t="n">
-        <v>2673.862606808281</v>
+        <v>2673.815375320131</v>
       </c>
       <c r="E30" t="n">
-        <v>59.45859618514413</v>
+        <v>59.47218967142979</v>
       </c>
       <c r="F30" t="n">
-        <v>7.245235260125448</v>
+        <v>7.24510654697208</v>
       </c>
       <c r="G30" t="n">
-        <v>99.4646993256666</v>
+        <v>99.46257021637199</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.63024176503495</v>
+        <v>89.62261464650101</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06920193603448707</v>
+        <v>0.06918184550990963</v>
       </c>
       <c r="D31" t="n">
-        <v>2591.565027615999</v>
+        <v>2591.481648107366</v>
       </c>
       <c r="E31" t="n">
-        <v>42.49394267870757</v>
+        <v>42.5000887025687</v>
       </c>
       <c r="F31" t="n">
-        <v>7.297186763074735</v>
+        <v>7.297085412237589</v>
       </c>
       <c r="G31" t="n">
-        <v>97.04996588866958</v>
+        <v>97.04688449029403</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>49.57116349267972</v>
+        <v>49.53074884915452</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008505281083720437</v>
+        <v>0.008526045944520191</v>
       </c>
       <c r="D32" t="n">
-        <v>2591.565027615999</v>
+        <v>2591.481648107366</v>
       </c>
       <c r="E32" t="n">
-        <v>4.430257953772717</v>
+        <v>4.442479504232274</v>
       </c>
       <c r="F32" t="n">
-        <v>8.247332343608614</v>
+        <v>8.245951616786233</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.98132777172634</v>
+        <v>45.88644975861206</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002745894827665469</v>
+        <v>0.002746690162187545</v>
       </c>
       <c r="D33" t="n">
-        <v>2586.37561781333</v>
+        <v>2586.196540176514</v>
       </c>
       <c r="E33" t="n">
-        <v>4.430257953772717</v>
+        <v>4.442479504232274</v>
       </c>
       <c r="F33" t="n">
-        <v>8.752081598956332</v>
+        <v>8.751386840315405</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.61303098543402</v>
+        <v>22.6178011787913</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002745894827665469</v>
+        <v>0.002746690162187545</v>
       </c>
       <c r="D34" t="n">
-        <v>94.84617964086716</v>
+        <v>94.86613285109647</v>
       </c>
       <c r="E34" t="n">
-        <v>4.430257953772717</v>
+        <v>4.442479504232274</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.63428388994117</v>
+        <v>24.63905762022216</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>103.9424688653375</v>
+        <v>103.962421806787</v>
       </c>
       <c r="E35" t="n">
-        <v>4.430257953772717</v>
+        <v>4.442479504232274</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.7148736835885</v>
+        <v>501.7087837135858</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3472.024802012389</v>
+        <v>3472.01136355884</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16419244650944</v>
+        <v>10.16418641751898</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>243.0511841434224</v>
       </c>
       <c r="E41" t="n">
-        <v>11.81637685053876</v>
+        <v>11.81654075226463</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.7148736835885</v>
+        <v>516.7087837135858</v>
       </c>
       <c r="C42" t="n">
-        <v>6.365502345836216</v>
+        <v>6.365968062564428</v>
       </c>
       <c r="D42" t="n">
-        <v>3458.775343722345</v>
+        <v>3458.756905376026</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81637685053876</v>
+        <v>11.81654075226463</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97393984110842</v>
+        <v>11.97393273864854</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97393984110842</v>
+        <v>11.97393273864854</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97393984110842</v>
+        <v>11.97393273864854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97393984110842</v>
+        <v>11.97393273864854</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762705246422635</v>
+        <v>4.762702421377293</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,16 +3406,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944169</v>
+        <v>0.0509488958594416</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.885497477219071</v>
+        <v>1.885082418392322</v>
       </c>
       <c r="C2" t="n">
-        <v>2.139831872307591</v>
+        <v>2.139148511347871</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8811428138911466</v>
+        <v>0.8812302691431823</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2074755120764697</v>
+        <v>0.2075574415673886</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>124.7145130668581</v>
+        <v>124.72386504816</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.2050213338784</v>
+        <v>31.20580470829769</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.214503724142036</v>
+        <v>6.214523566984564</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.96403261264524</v>
+        <v>40.9682605576526</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.34290900163312</v>
+        <v>27.34135265443706</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8492043276165249</v>
+        <v>0.84920616357804</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.10098457416524</v>
+        <v>10.10423820979945</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8192229294477018</v>
+        <v>0.8192003362340867</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.497148612793219</v>
+        <v>3.499190709755631</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8136629476255197</v>
+        <v>0.8136528820289933</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02299042405366317</v>
+        <v>0.02347898366046372</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03323735476800569</v>
+        <v>0.03378812436988963</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04029890768652666</v>
+        <v>0.04041007725022949</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0451590352806478</v>
+        <v>0.04528336080610879</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923775150660964</v>
+        <v>0.8923824674421718</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39337.24927108611</v>
+        <v>39337.44790922562</v>
       </c>
       <c r="C2" t="n">
-        <v>39734.5952233193</v>
+        <v>39734.79586790466</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87886.64839486218</v>
+        <v>87892.37990323137</v>
       </c>
       <c r="C3" t="n">
-        <v>88774.39231804261</v>
+        <v>88780.18172043572</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32647.21154252293</v>
+        <v>32685.26781048931</v>
       </c>
       <c r="C4" t="n">
-        <v>32976.98135608376</v>
+        <v>33015.42203079728</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>446.174701171422</v>
+        <v>446.2297444284873</v>
       </c>
       <c r="C5" t="n">
-        <v>450.6815163347697</v>
+        <v>450.7371155843306</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28394.08099227343</v>
+        <v>28419.05245309386</v>
       </c>
       <c r="C6" t="n">
-        <v>28680.88989118528</v>
+        <v>28706.1135889837</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30420.63119505241</v>
+        <v>30399.21518825725</v>
       </c>
       <c r="C7" t="n">
-        <v>30727.91029803273</v>
+        <v>30706.27796793662</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.50489347960317</v>
+        <v>37.52117362510318</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.91275255005466</v>
+        <v>84.89705740180997</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.342063579460984</v>
+        <v>7.341033470548209</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34630.74515941903</v>
+        <v>34630.58802690576</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3367.463357547565</v>
+        <v>3367.929675329837</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22625.59745517692</v>
+        <v>22625.72062552885</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.761957149653</v>
+        <v>7875.757285564185</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.881548512738</v>
+        <v>5689.878173503677</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.04474025343</v>
+        <v>21121.03221209854</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38054.15160346339</v>
+        <v>38054.59734649624</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7528341969507313</v>
+        <v>0.7528906498138357</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.8093473935147</v>
+        <v>462.8118724468585</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>868.0987003105815</v>
+        <v>868.1015572618234</v>
       </c>
       <c r="E6" t="n">
         <v>527.466168735</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.2363800460777</v>
+        <v>304.2380783803908</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.004020720544</v>
+        <v>692.005871869936</v>
       </c>
       <c r="E7" t="n">
         <v>527.466168735</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.6543046541603</v>
+        <v>233.6557308298986</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.6676846145893</v>
+        <v>615.6692155012902</v>
       </c>
       <c r="E8" t="n">
         <v>527.466168735</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.7336589230244</v>
+        <v>232.7350861635126</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.6795370239723</v>
+        <v>614.6810687667744</v>
       </c>
       <c r="E9" t="n">
         <v>527.466168735</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.0186157349915</v>
+        <v>173.0216020406515</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.9606440930152</v>
+        <v>550.963813287867</v>
       </c>
       <c r="E10" t="n">
         <v>527.466168735</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104.4925156216243</v>
+        <v>104.4945932099132</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>478.6259935987579</v>
+        <v>478.6281760811773</v>
       </c>
       <c r="E11" t="n">
         <v>527.466168735</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.377884986466</v>
+        <v>505.3813929606843</v>
       </c>
       <c r="C3" t="n">
-        <v>7.730002544085405</v>
+        <v>7.730284226213337</v>
       </c>
       <c r="D3" t="n">
-        <v>3415.948948429024</v>
+        <v>3415.954672174773</v>
       </c>
       <c r="E3" t="n">
-        <v>63.82899017569645</v>
+        <v>63.83110671261635</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.9229414572723</v>
+        <v>295.9246123365766</v>
       </c>
       <c r="C4" t="n">
-        <v>8.105393869774977</v>
+        <v>8.105587252543629</v>
       </c>
       <c r="D4" t="n">
-        <v>2757.106548064892</v>
+        <v>2757.103636988034</v>
       </c>
       <c r="E4" t="n">
-        <v>63.82899017569645</v>
+        <v>63.83110671261635</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.877646717474</v>
+        <v>294.8783415023505</v>
       </c>
       <c r="C5" t="n">
-        <v>8.105393869774977</v>
+        <v>8.105587252543629</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.47346874925</v>
+        <v>1316.477166598939</v>
       </c>
       <c r="E5" t="n">
-        <v>63.82899017569645</v>
+        <v>63.83110671261635</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.8013946341853</v>
+        <v>162.8047676784803</v>
       </c>
       <c r="C6" t="n">
-        <v>8.105393869774977</v>
+        <v>8.105587252543629</v>
       </c>
       <c r="D6" t="n">
-        <v>691.9643159322602</v>
+        <v>691.9789919313047</v>
       </c>
       <c r="E6" t="n">
-        <v>63.82899017569645</v>
+        <v>63.83110671261635</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.4510715370641</v>
+        <v>161.4543939032171</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6413892768569127</v>
+        <v>0.641443072058606</v>
       </c>
       <c r="D7" t="n">
-        <v>681.7810177954869</v>
+        <v>681.7954672655014</v>
       </c>
       <c r="E7" t="n">
-        <v>63.82899017569645</v>
+        <v>63.83110671261635</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.7114099540667</v>
+        <v>174.714638149816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6346366440352</v>
+        <v>0.6346706713675738</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.49106459068</v>
+        <v>2791.494817795446</v>
       </c>
       <c r="E8" t="n">
-        <v>15.89426642084975</v>
+        <v>15.89450531223969</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.4510714076238</v>
+        <v>161.4543937737698</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6413892768569127</v>
+        <v>0.641443072058606</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.026830861376</v>
+        <v>2759.030435266814</v>
       </c>
       <c r="E9" t="n">
-        <v>15.89426642084975</v>
+        <v>15.89450531223969</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.7097839511299</v>
+        <v>160.7132835012471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6413892768569127</v>
+        <v>0.641443072058606</v>
       </c>
       <c r="D10" t="n">
-        <v>678.5648451029627</v>
+        <v>678.5800555336831</v>
       </c>
       <c r="E10" t="n">
-        <v>79.72325659654619</v>
+        <v>79.72561202485605</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.7097839511299</v>
+        <v>160.7132835012471</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6413892768569127</v>
+        <v>0.641443072058606</v>
       </c>
       <c r="D11" t="n">
-        <v>678.5648451029627</v>
+        <v>678.5800555336831</v>
       </c>
       <c r="E11" t="n">
-        <v>88.48874320421658</v>
+        <v>88.4868108280757</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6413892768569127</v>
+        <v>0.641443072058606</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7022046488984</v>
+        <v>251.7022498196359</v>
       </c>
       <c r="E12" t="n">
-        <v>88.4900746157634</v>
+        <v>88.49319221836045</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.76307711852132</v>
+        <v>48.76298525568944</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>204.7615333502789</v>
+        <v>204.7611493980843</v>
       </c>
       <c r="E13" t="n">
-        <v>73.50283217373257</v>
+        <v>73.50685966927907</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.76307711852132</v>
+        <v>48.76298525568944</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>204.7615333502789</v>
+        <v>204.7611493980843</v>
       </c>
       <c r="E14" t="n">
-        <v>73.50283217373257</v>
+        <v>73.50685966927907</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.75090821243828</v>
+        <v>81.75086923139378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05087761166719296</v>
+        <v>0.05087753226836781</v>
       </c>
       <c r="D15" t="n">
-        <v>342.3646034046199</v>
+        <v>342.364439691262</v>
       </c>
       <c r="E15" t="n">
-        <v>56.21203338031205</v>
+        <v>56.21214992446457</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54.92936654430514</v>
+        <v>54.92963518141062</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05087774478396162</v>
+        <v>0.05087755195106273</v>
       </c>
       <c r="D16" t="n">
-        <v>229.9906811343131</v>
+        <v>229.9918046913141</v>
       </c>
       <c r="E16" t="n">
-        <v>56.21169465579383</v>
+        <v>56.21342762522693</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.20806845670946</v>
+        <v>68.20841963101273</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>285.5871826282425</v>
+        <v>285.5886529950503</v>
       </c>
       <c r="E19" t="n">
         <v>73.54563361700835</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.1402566949981</v>
+        <v>108.1409016574339</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1346495280794579</v>
+        <v>0.1346495661990541</v>
       </c>
       <c r="D20" t="n">
-        <v>2642.098048706376</v>
+        <v>2642.099499967983</v>
       </c>
       <c r="E20" t="n">
-        <v>24.30153831763437</v>
+        <v>24.30156041388133</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.6371580723721</v>
+        <v>106.6371663342332</v>
       </c>
       <c r="C21" t="n">
-        <v>0.127917051675485</v>
+        <v>0.1279170878891014</v>
       </c>
       <c r="D21" t="n">
-        <v>447.1923619107748</v>
+        <v>447.1923968339173</v>
       </c>
       <c r="E21" t="n">
-        <v>24.30153831763437</v>
+        <v>24.30156041388133</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.72042119216843</v>
+        <v>79.72038761093837</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>333.7894035316093</v>
+        <v>333.789262926999</v>
       </c>
       <c r="E22" t="n">
         <v>583.8302784475239</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.45822593880856</v>
+        <v>50.4582701765564</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.03746268818873</v>
+        <v>83.03742338231854</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05355538070230838</v>
+        <v>0.05355529712459769</v>
       </c>
       <c r="D25" t="n">
-        <v>2526.794064383943</v>
+        <v>2526.793256124976</v>
       </c>
       <c r="E25" t="n">
-        <v>31.91059064728054</v>
+        <v>31.91049918878184</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.4253391234586</v>
+        <v>502.4291063056346</v>
       </c>
       <c r="C26" t="n">
-        <v>7.113288664455558</v>
+        <v>7.113581209552523</v>
       </c>
       <c r="D26" t="n">
-        <v>3415.948948429024</v>
+        <v>3415.954672174773</v>
       </c>
       <c r="E26" t="n">
-        <v>57.6089343215674</v>
+        <v>57.61120323516597</v>
       </c>
       <c r="F26" t="n">
-        <v>6.798834932795303</v>
+        <v>6.798824385513638</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.8873354577231</v>
+        <v>187.8890605201555</v>
       </c>
       <c r="C27" t="n">
-        <v>0.470464338553076</v>
+        <v>0.4704811314327966</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.397268520879</v>
+        <v>2831.400027822874</v>
       </c>
       <c r="E27" t="n">
-        <v>57.6089343215674</v>
+        <v>57.61120323516597</v>
       </c>
       <c r="F27" t="n">
-        <v>7.036020450172535</v>
+        <v>7.036010426542928</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.895001041906</v>
+        <v>171.8972359508755</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5423595476875336</v>
+        <v>0.5423785017585991</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.49106459068</v>
+        <v>2791.494817795446</v>
       </c>
       <c r="E28" t="n">
-        <v>15.89426642084975</v>
+        <v>15.89450531223969</v>
       </c>
       <c r="F28" t="n">
-        <v>6.884445314540852</v>
+        <v>6.884438243120315</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.9001367427673</v>
+        <v>183.9020454689534</v>
       </c>
       <c r="C29" t="n">
-        <v>0.470464338553076</v>
+        <v>0.4704811314327966</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.767986656895</v>
+        <v>2822.771125587914</v>
       </c>
       <c r="E29" t="n">
-        <v>73.50320074241715</v>
+        <v>73.50570854740566</v>
       </c>
       <c r="F29" t="n">
-        <v>7.01722187003165</v>
+        <v>7.017212747829772</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>108.1403980612994</v>
+        <v>108.1413740674402</v>
       </c>
       <c r="C30" t="n">
-        <v>0.134649384234928</v>
+        <v>0.1346538482296528</v>
       </c>
       <c r="D30" t="n">
-        <v>2642.098465652984</v>
+        <v>2642.100893261437</v>
       </c>
       <c r="E30" t="n">
-        <v>73.50320074241715</v>
+        <v>73.50570854740566</v>
       </c>
       <c r="F30" t="n">
-        <v>7.138119383736001</v>
+        <v>7.138111045745246</v>
       </c>
       <c r="G30" t="n">
-        <v>97.9358480879564</v>
+        <v>97.93588743687467</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.03790146382676</v>
+        <v>83.03674457949006</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05355631369661265</v>
+        <v>0.05355385377518743</v>
       </c>
       <c r="D31" t="n">
-        <v>2526.79557603915</v>
+        <v>2526.790663860891</v>
       </c>
       <c r="E31" t="n">
-        <v>49.20175800938564</v>
+        <v>49.20405781172293</v>
       </c>
       <c r="F31" t="n">
-        <v>7.2291607788243</v>
+        <v>7.229166864829192</v>
       </c>
       <c r="G31" t="n">
-        <v>94.72752990434739</v>
+        <v>94.72740659193381</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.47468711607678</v>
+        <v>70.47778041222216</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03184704738169738</v>
+        <v>0.03185129460409493</v>
       </c>
       <c r="D32" t="n">
-        <v>2526.79557603915</v>
+        <v>2526.790663860891</v>
       </c>
       <c r="E32" t="n">
-        <v>17.29113751793874</v>
+        <v>17.29343204405212</v>
       </c>
       <c r="F32" t="n">
-        <v>7.455629060193206</v>
+        <v>7.45555628811114</v>
       </c>
       <c r="G32" t="n">
-        <v>95.70675405007795</v>
+        <v>95.70630262147908</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>27.10918159795</v>
+        <v>27.10991586415236</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003591050432003306</v>
+        <v>0.003591205128867148</v>
       </c>
       <c r="D33" t="n">
-        <v>2381.852040481538</v>
+        <v>2381.822923439514</v>
       </c>
       <c r="E33" t="n">
-        <v>17.29113751793874</v>
+        <v>17.29343204405212</v>
       </c>
       <c r="F33" t="n">
-        <v>7.950851567035159</v>
+        <v>7.950736120549773</v>
       </c>
       <c r="G33" t="n">
-        <v>93.08603372801173</v>
+        <v>93.08477933590838</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.10918159795</v>
+        <v>27.10991586415236</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003591050432003306</v>
+        <v>0.003591205128867148</v>
       </c>
       <c r="D34" t="n">
-        <v>113.6485143897723</v>
+        <v>113.6515843731152</v>
       </c>
       <c r="E34" t="n">
-        <v>17.29113751793874</v>
+        <v>17.29343204405212</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.13339767580226</v>
+        <v>29.13413236504846</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>122.7441906398447</v>
+        <v>122.7472604459011</v>
       </c>
       <c r="E35" t="n">
-        <v>17.29113751793874</v>
+        <v>17.29343204405212</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.7148736835885</v>
+        <v>501.7087837135858</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3472.024802012389</v>
+        <v>3472.01136355884</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16419244650944</v>
+        <v>10.16418641751898</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.7148736835885</v>
+        <v>516.7087837135858</v>
       </c>
       <c r="C42" t="n">
-        <v>6.365502345836216</v>
+        <v>6.365968062564428</v>
       </c>
       <c r="D42" t="n">
-        <v>3458.775343722345</v>
+        <v>3458.756905376026</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81637685053876</v>
+        <v>11.81654075226463</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-5, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=-5, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>948.6294601883625</v>
       </c>
       <c r="E3" t="n">
-        <v>442.8743261263618</v>
+        <v>442.8354389626114</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.62890062799843</v>
+        <v>13.62896361694168</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>542.2502557237682</v>
+        <v>542.2510461826485</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>966.0198225239992</v>
+        <v>966.0213820260366</v>
       </c>
       <c r="E5" t="n">
-        <v>456.5032267543602</v>
+        <v>456.4644025795531</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781618136777227</v>
+        <v>0.778161622071514</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202249474249163</v>
+        <v>0.120224636020039</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03194667029054159</v>
+        <v>0.03194683577354445</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06310110629562631</v>
+        <v>0.0631014379575298</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565462311193054</v>
+        <v>0.006565468177372785</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466.2353864431195</v>
+        <v>466.2319484360636</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>878.9781686228636</v>
+        <v>878.9748942618794</v>
       </c>
       <c r="E6" t="n">
-        <v>456.5032267543602</v>
+        <v>456.4644025795531</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781618136777227</v>
+        <v>0.778161622071514</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202249474249163</v>
+        <v>0.120224636020039</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03194667029054159</v>
+        <v>0.03194683577354445</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06310110629562631</v>
+        <v>0.0631014379575298</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565462311193054</v>
+        <v>0.006565468177372785</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.316825687226</v>
+        <v>291.3063640862946</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>684.4994080856299</v>
+        <v>684.4886012744273</v>
       </c>
       <c r="E7" t="n">
-        <v>456.5032267543602</v>
+        <v>456.4644025795531</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781618136777227</v>
+        <v>0.778161622071514</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202249474249163</v>
+        <v>0.120224636020039</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03194667029054159</v>
+        <v>0.03194683577354445</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06310110629562631</v>
+        <v>0.0631014379575298</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565462311193054</v>
+        <v>0.006565468177372785</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.431592720243</v>
+        <v>224.4402313534911</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.1769794676991</v>
+        <v>612.1868288300333</v>
       </c>
       <c r="E8" t="n">
-        <v>456.5032267543602</v>
+        <v>456.4644025795531</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781618136777227</v>
+        <v>0.778161622071514</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202249474249163</v>
+        <v>0.120224636020039</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03194667029054159</v>
+        <v>0.03194683577354445</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06310110629562631</v>
+        <v>0.0631014379575298</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565462311193054</v>
+        <v>0.006565468177372785</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223.5119262881917</v>
+        <v>223.5205518858488</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.189610509129</v>
+        <v>611.1994439799283</v>
       </c>
       <c r="E9" t="n">
-        <v>456.5032267543602</v>
+        <v>456.4644025795531</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781618136777227</v>
+        <v>0.778161622071514</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202249474249163</v>
+        <v>0.120224636020039</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03194667029054159</v>
+        <v>0.03194683577354445</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06310110629562631</v>
+        <v>0.0631014379575298</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565462311193054</v>
+        <v>0.006565468177372785</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.6072902190139</v>
+        <v>164.6064580615114</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>548.3070022237988</v>
+        <v>548.3066804967096</v>
       </c>
       <c r="E10" t="n">
-        <v>456.5032267543602</v>
+        <v>456.4644025795531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781618136777227</v>
+        <v>0.778161622071514</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202249474249163</v>
+        <v>0.120224636020039</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03194667029054159</v>
+        <v>0.03194683577354445</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06310110629562631</v>
+        <v>0.0631014379575298</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565462311193054</v>
+        <v>0.006565468177372785</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.9547054980221</v>
+        <v>100.9522137728464</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.0429038158825</v>
+        <v>481.0408323087141</v>
       </c>
       <c r="E11" t="n">
-        <v>456.5032267543602</v>
+        <v>456.4644025795531</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781618136777227</v>
+        <v>0.778161622071514</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202249474249163</v>
+        <v>0.120224636020039</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03194667029054159</v>
+        <v>0.03194683577354445</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06310110629562631</v>
+        <v>0.0631014379575298</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565462311193054</v>
+        <v>0.006565468177372785</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.91895815426024</v>
+        <v>12.91901786204917</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.709942473738199</v>
+        <v>0.7099457548925204</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97393273864854</v>
+        <v>11.97396787827862</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97393273864854</v>
+        <v>11.97396787827862</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97393273864854</v>
+        <v>11.97396787827862</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97393273864854</v>
+        <v>11.97396787827862</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762702421377293</v>
+        <v>4.762716398372568</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594416</v>
+        <v>0.05094889585944162</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489641</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6500256496534479</v>
+        <v>0.6996903169099922</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6822997842377806</v>
+        <v>0.7166135948675372</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9526980143773793</v>
+        <v>0.9763843749563903</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.1379108196639</v>
+        <v>63.09863764288123</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.67689641781746</v>
+        <v>37.11633202748947</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8491049692932983</v>
+        <v>0.8488717175806531</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.28029344058207</v>
+        <v>14.66148481141773</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7967193916590749</v>
+        <v>0.7854027807351862</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.673731193707507</v>
+        <v>6.568185646490519</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7804779063218769</v>
+        <v>0.7412170292752389</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.506989767556874</v>
+        <v>4.752635157483506</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4936745966216415</v>
+        <v>0.6389918669413254</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1572954560594335</v>
+        <v>0.2130251906249332</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1749860448252161</v>
+        <v>0.2359142378006772</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8989028594625773</v>
+        <v>0.9029772539837853</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42050.98698859633</v>
+        <v>41848.84610206551</v>
       </c>
       <c r="C2" t="n">
-        <v>42475.74443292559</v>
+        <v>42271.56171925809</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91955.67133937852</v>
+        <v>89350.75573603972</v>
       </c>
       <c r="C3" t="n">
-        <v>92884.51650442275</v>
+        <v>90253.28862226235</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39862.35363212173</v>
+        <v>40709.4791119455</v>
       </c>
       <c r="C4" t="n">
-        <v>40265.00366880983</v>
+        <v>41120.68597166212</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.0018324810168</v>
+        <v>517.5631762562093</v>
       </c>
       <c r="C5" t="n">
-        <v>521.2139722030472</v>
+        <v>522.7910871274842</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33272.6096634708</v>
+        <v>33907.3986782627</v>
       </c>
       <c r="C6" t="n">
-        <v>33608.69662976848</v>
+        <v>34249.89765481081</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37773.05540621332</v>
+        <v>38860.66390449672</v>
       </c>
       <c r="C7" t="n">
-        <v>38154.60142041749</v>
+        <v>39253.19586312801</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.80627089397305</v>
+        <v>60.30869866949187</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.53116928044753</v>
+        <v>64.62386008996151</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.253684733332477</v>
+        <v>5.658566148299689</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>516.7135907239307</v>
+        <v>516.7139043124084</v>
       </c>
       <c r="C3" t="n">
-        <v>6.365874353347269</v>
+        <v>6.364806859666167</v>
       </c>
       <c r="D3" t="n">
-        <v>3458.769391920922</v>
+        <v>3458.781792233918</v>
       </c>
       <c r="E3" t="n">
-        <v>57.61120323516597</v>
+        <v>57.60243743610984</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.3064811957945</v>
+        <v>283.296302224254</v>
       </c>
       <c r="C4" t="n">
-        <v>6.742767806466077</v>
+        <v>6.741744600142947</v>
       </c>
       <c r="D4" t="n">
-        <v>2775.906604985626</v>
+        <v>2775.919373168106</v>
       </c>
       <c r="E4" t="n">
-        <v>57.61120323516597</v>
+        <v>57.60243743610984</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.5589465431165</v>
+        <v>282.534757060106</v>
       </c>
       <c r="C5" t="n">
-        <v>6.742767806466077</v>
+        <v>6.741744600142947</v>
       </c>
       <c r="D5" t="n">
-        <v>1250.280755159406</v>
+        <v>1250.152362699071</v>
       </c>
       <c r="E5" t="n">
-        <v>57.61120323516597</v>
+        <v>57.60243743610984</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.8896360369339</v>
+        <v>160.8982388353102</v>
       </c>
       <c r="C6" t="n">
-        <v>6.742767806466077</v>
+        <v>6.741744600142947</v>
       </c>
       <c r="D6" t="n">
-        <v>682.9113682902155</v>
+        <v>682.9478997433198</v>
       </c>
       <c r="E6" t="n">
-        <v>57.61120323516597</v>
+        <v>57.60243743610984</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.1684636097162</v>
+        <v>154.1666032023509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5318035865928293</v>
+        <v>0.5317776455805295</v>
       </c>
       <c r="D7" t="n">
-        <v>650.1906071789172</v>
+        <v>650.1825575868635</v>
       </c>
       <c r="E7" t="n">
-        <v>57.61120323516597</v>
+        <v>57.60243743610984</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.8552242869084</v>
+        <v>167.8538824733105</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5256717471144695</v>
+        <v>0.5256495499995324</v>
       </c>
       <c r="D8" t="n">
-        <v>2783.467778825835</v>
+        <v>2783.466544594562</v>
       </c>
       <c r="E8" t="n">
-        <v>13.67884085462079</v>
+        <v>13.6797550204196</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.1684634947506</v>
+        <v>154.1666030873893</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5318035865928293</v>
+        <v>0.5317776455805295</v>
       </c>
       <c r="D9" t="n">
-        <v>2750.848347265646</v>
+        <v>2750.846188557393</v>
       </c>
       <c r="E9" t="n">
-        <v>13.67884085462079</v>
+        <v>13.6797550204196</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.1684636097162</v>
+        <v>154.1666032023509</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5318035865928293</v>
+        <v>0.5317776455805295</v>
       </c>
       <c r="D10" t="n">
-        <v>654.6464251998445</v>
+        <v>654.6684235385379</v>
       </c>
       <c r="E10" t="n">
-        <v>71.29004408978676</v>
+        <v>71.28219245652943</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.1684636097162</v>
+        <v>154.1666032023509</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5318035865928293</v>
+        <v>0.5317776455805295</v>
       </c>
       <c r="D11" t="n">
-        <v>654.6464251998445</v>
+        <v>654.6684235385379</v>
       </c>
       <c r="E11" t="n">
-        <v>75.42551376297909</v>
+        <v>75.4169400751057</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5318035865928293</v>
+        <v>0.5317776455805295</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6101864633344</v>
+        <v>251.6101646805554</v>
       </c>
       <c r="E12" t="n">
-        <v>75.42847287834414</v>
+        <v>75.41684030734164</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.37422915796719</v>
+        <v>54.37696656853802</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>228.2187628989331</v>
+        <v>228.2302090782824</v>
       </c>
       <c r="E13" t="n">
-        <v>71.29001537530714</v>
+        <v>71.2810623116013</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.66942006434169</v>
+        <v>53.6726145134711</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>225.2717699545801</v>
+        <v>225.2851263971836</v>
       </c>
       <c r="E14" t="n">
-        <v>59.4734746230425</v>
+        <v>59.46478741805235</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>88.28151467837387</v>
+        <v>88.28407712671952</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06572406631796045</v>
+        <v>0.06573053285152375</v>
       </c>
       <c r="D15" t="n">
-        <v>369.8105898583949</v>
+        <v>369.8213666444937</v>
       </c>
       <c r="E15" t="n">
-        <v>55.02959349661562</v>
+        <v>55.02924661003598</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.13928606706139</v>
+        <v>56.13941273837133</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06572389757894399</v>
+        <v>0.06573076015548879</v>
       </c>
       <c r="D16" t="n">
-        <v>235.0646928638396</v>
+        <v>235.0652286104472</v>
       </c>
       <c r="E16" t="n">
-        <v>55.03099511881022</v>
+        <v>55.02916974822021</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>580.1113021747249</v>
+        <v>580.1147897116534</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>73.0771507779255</v>
+        <v>73.07759010613893</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.89234164800975</v>
+        <v>71.89334252204505</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>301.0132344802169</v>
+        <v>301.0174251398026</v>
       </c>
       <c r="E19" t="n">
-        <v>73.0771507779255</v>
+        <v>73.07759010613893</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>106.5916817316865</v>
+        <v>106.5900788502431</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1277198542163147</v>
+        <v>0.1277173546324417</v>
       </c>
       <c r="D20" t="n">
-        <v>2673.81576304291</v>
+        <v>2673.830124876051</v>
       </c>
       <c r="E20" t="n">
-        <v>16.97194271178985</v>
+        <v>16.96929252386354</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105.1027759538639</v>
+        <v>105.1022102350555</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1213338615054989</v>
+        <v>0.1213314869008196</v>
       </c>
       <c r="D21" t="n">
-        <v>440.7080969084907</v>
+        <v>440.7057067830989</v>
       </c>
       <c r="E21" t="n">
-        <v>16.97194271178985</v>
+        <v>16.96929252386354</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.87484568451445</v>
+        <v>85.87723484071773</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>359.5579788810621</v>
+        <v>359.5679822780852</v>
       </c>
       <c r="E22" t="n">
-        <v>580.1113021747249</v>
+        <v>580.1147897116534</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>580.1113021747249</v>
+        <v>580.1147897116534</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.92233719900708</v>
+        <v>50.9224632800238</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>580.1113021747249</v>
+        <v>580.1147897116534</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.62313943818202</v>
+        <v>89.62572374861338</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06918322770311626</v>
+        <v>0.06919003458055131</v>
       </c>
       <c r="D25" t="n">
-        <v>2591.484087351207</v>
+        <v>2591.517448001753</v>
       </c>
       <c r="E25" t="n">
-        <v>38.05749252775454</v>
+        <v>38.06003076662407</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>513.8088575043824</v>
+        <v>513.8095122837063</v>
       </c>
       <c r="C26" t="n">
-        <v>5.737651615349119</v>
+        <v>5.736662097089478</v>
       </c>
       <c r="D26" t="n">
-        <v>3458.769391920922</v>
+        <v>3458.781792233918</v>
       </c>
       <c r="E26" t="n">
-        <v>45.793348816809</v>
+        <v>45.78523670197378</v>
       </c>
       <c r="F26" t="n">
-        <v>6.948051172838207</v>
+        <v>6.948143206595348</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>200.1476567768485</v>
+        <v>200.1551165423173</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3905699545237717</v>
+        <v>0.3905287617605148</v>
       </c>
       <c r="D27" t="n">
-        <v>2861.709920166345</v>
+        <v>2861.727592204911</v>
       </c>
       <c r="E27" t="n">
-        <v>45.793348816809</v>
+        <v>45.78523670197378</v>
       </c>
       <c r="F27" t="n">
-        <v>7.18473445307512</v>
+        <v>7.184819462853569</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.199776974883</v>
+        <v>165.19810786622</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4438197039096763</v>
+        <v>0.44378562881477</v>
       </c>
       <c r="D28" t="n">
-        <v>2783.467778825835</v>
+        <v>2783.466544594562</v>
       </c>
       <c r="E28" t="n">
-        <v>13.67884085462079</v>
+        <v>13.6797550204196</v>
       </c>
       <c r="F28" t="n">
-        <v>6.955485258542576</v>
+        <v>6.955516692070304</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.5759093237026</v>
+        <v>191.5795696336715</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3905699545237717</v>
+        <v>0.3905287617605148</v>
       </c>
       <c r="D29" t="n">
-        <v>2843.713915555879</v>
+        <v>2843.723857100584</v>
       </c>
       <c r="E29" t="n">
-        <v>59.47218967142979</v>
+        <v>59.46499172239338</v>
       </c>
       <c r="F29" t="n">
-        <v>7.146362939167823</v>
+        <v>7.146431919726016</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>106.5915799657163</v>
+        <v>106.5909314008106</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1277173459162652</v>
+        <v>0.1277145060096623</v>
       </c>
       <c r="D30" t="n">
-        <v>2673.815375320131</v>
+        <v>2673.833373366177</v>
       </c>
       <c r="E30" t="n">
-        <v>59.47218967142979</v>
+        <v>59.46499172239338</v>
       </c>
       <c r="F30" t="n">
-        <v>7.24510654697208</v>
+        <v>7.245163965670952</v>
       </c>
       <c r="G30" t="n">
-        <v>99.46257021637199</v>
+        <v>99.46341914449076</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.62261464650101</v>
+        <v>89.62681788460645</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06918184550990963</v>
+        <v>0.06919291661994899</v>
       </c>
       <c r="D31" t="n">
-        <v>2591.481648107366</v>
+        <v>2591.522044683066</v>
       </c>
       <c r="E31" t="n">
-        <v>42.5000887025687</v>
+        <v>42.49577587898147</v>
       </c>
       <c r="F31" t="n">
-        <v>7.297085412237589</v>
+        <v>7.297125958776225</v>
       </c>
       <c r="G31" t="n">
-        <v>97.04688449029403</v>
+        <v>97.04833942338965</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>49.53074884915452</v>
+        <v>49.55008757564673</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008526045944520191</v>
+        <v>0.008514346773392549</v>
       </c>
       <c r="D32" t="n">
-        <v>2591.481648107366</v>
+        <v>2591.522044683066</v>
       </c>
       <c r="E32" t="n">
-        <v>4.442479504232274</v>
+        <v>4.435617669832148</v>
       </c>
       <c r="F32" t="n">
-        <v>8.245951616786233</v>
+        <v>8.246708809252663</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.88644975861206</v>
+        <v>45.93635188607072</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002746690162187545</v>
+        <v>0.002746242857554012</v>
       </c>
       <c r="D33" t="n">
-        <v>2586.196540176514</v>
+        <v>2586.290736594343</v>
       </c>
       <c r="E33" t="n">
-        <v>4.442479504232274</v>
+        <v>4.435617669832148</v>
       </c>
       <c r="F33" t="n">
-        <v>8.751386840315405</v>
+        <v>8.751757166404719</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.6178011787913</v>
+        <v>22.61511851957852</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002746690162187545</v>
+        <v>0.002746242857554012</v>
       </c>
       <c r="D34" t="n">
-        <v>94.86613285109647</v>
+        <v>94.8549115751298</v>
       </c>
       <c r="E34" t="n">
-        <v>4.442479504232274</v>
+        <v>4.435617669832148</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.63905762022216</v>
+        <v>24.63637297221277</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>103.962421806787</v>
+        <v>103.9512006828432</v>
       </c>
       <c r="E35" t="n">
-        <v>4.442479504232274</v>
+        <v>4.435617669832148</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.7087837135858</v>
+        <v>501.7070818674802</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3472.01136355884</v>
+        <v>3472.007608176139</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16418641751898</v>
+        <v>10.1642162461274</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>243.0511841434224</v>
       </c>
       <c r="E41" t="n">
-        <v>11.81654075226463</v>
+        <v>11.81627489354895</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.7087837135858</v>
+        <v>516.7070818674802</v>
       </c>
       <c r="C42" t="n">
-        <v>6.365968062564428</v>
+        <v>6.365041060375116</v>
       </c>
       <c r="D42" t="n">
-        <v>3458.756905376026</v>
+        <v>3458.75990037166</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81654075226463</v>
+        <v>11.81627489354895</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97393273864854</v>
+        <v>11.97396787827862</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97393273864854</v>
+        <v>11.97396787827862</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97393273864854</v>
+        <v>11.97396787827862</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97393273864854</v>
+        <v>11.97396787827862</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762702421377293</v>
+        <v>4.762716398372568</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594416</v>
+        <v>0.05094889585944162</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489641</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.885082418392322</v>
+        <v>1.887363571640007</v>
       </c>
       <c r="C2" t="n">
-        <v>2.139148511347871</v>
+        <v>2.141898674131749</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8812302691431823</v>
+        <v>0.8811637984719696</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2075574415673886</v>
+        <v>0.2072414073211244</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>124.72386504816</v>
+        <v>124.7050465647923</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.20580470829769</v>
+        <v>31.2042284378753</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.214523566984564</v>
+        <v>6.214483638311694</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.9682605576526</v>
+        <v>40.95989193982894</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.34135265443706</v>
+        <v>27.33626787223571</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.84920616357804</v>
+        <v>0.8492067490705725</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.10423820979945</v>
+        <v>10.1025362089799</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8192003362340867</v>
+        <v>0.8192109087380768</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.499190709755631</v>
+        <v>3.497883776018655</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8136528820289933</v>
+        <v>0.8136590954517464</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02347898366046372</v>
+        <v>0.02320408259467525</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03378812436988963</v>
+        <v>0.0334789212549571</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04041007725022949</v>
+        <v>0.04034766069607502</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04528336080610879</v>
+        <v>0.0452135579572656</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923824674421718</v>
+        <v>0.8923796869560747</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39337.44790922562</v>
+        <v>39336.28680357523</v>
       </c>
       <c r="C2" t="n">
-        <v>39734.79586790466</v>
+        <v>39733.62303391438</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87892.37990323137</v>
+        <v>87888.30884304494</v>
       </c>
       <c r="C3" t="n">
-        <v>88780.18172043572</v>
+        <v>88776.06953842923</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32685.26781048931</v>
+        <v>32673.15351063038</v>
       </c>
       <c r="C4" t="n">
-        <v>33015.42203079728</v>
+        <v>33003.18536427311</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>446.2297444284873</v>
+        <v>446.1989753620628</v>
       </c>
       <c r="C5" t="n">
-        <v>450.7371155843306</v>
+        <v>450.7060357192553</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28419.05245309386</v>
+        <v>28421.2246328451</v>
       </c>
       <c r="C6" t="n">
-        <v>28706.1135889837</v>
+        <v>28708.30770994455</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30399.21518825725</v>
+        <v>30397.42055506891</v>
       </c>
       <c r="C7" t="n">
-        <v>30706.27796793662</v>
+        <v>30704.46520714031</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.52117362510318</v>
+        <v>37.51559607787382</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.89705740180997</v>
+        <v>84.90306466468</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.341033470548209</v>
+        <v>7.341383846977917</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34630.58802690576</v>
+        <v>34630.65148598877</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3367.929675329837</v>
+        <v>3367.046682545478</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22625.72062552885</v>
+        <v>22625.82519524224</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.757285564185</v>
+        <v>7875.78039837129</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.878173503677</v>
+        <v>5689.8948714607</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.03221209854</v>
+        <v>21121.09419551495</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38054.59734649624</v>
+        <v>38053.81614789242</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7528906498138357</v>
+        <v>0.7527770527875906</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.8118724468585</v>
+        <v>463.1539893764535</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>868.1015572618234</v>
+        <v>868.4886583230292</v>
       </c>
       <c r="E6" t="n">
         <v>527.466168735</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.2380783803908</v>
+        <v>309.1670793280899</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.005871869936</v>
+        <v>697.3814025937887</v>
       </c>
       <c r="E7" t="n">
         <v>527.466168735</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.6557308298986</v>
+        <v>237.1510431579775</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.6692155012902</v>
+        <v>619.4224956362484</v>
       </c>
       <c r="E8" t="n">
         <v>527.466168735</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.7350861635126</v>
+        <v>236.2282712733373</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.6810687667744</v>
+        <v>618.4313589186438</v>
       </c>
       <c r="E9" t="n">
         <v>527.466168735</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.0216020406515</v>
+        <v>175.4095058948002</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.963813287867</v>
+        <v>553.4984785086056</v>
       </c>
       <c r="E10" t="n">
         <v>527.466168735</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104.4945932099132</v>
+        <v>104.9247511390572</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>478.6281760811773</v>
+        <v>479.080064229511</v>
       </c>
       <c r="E11" t="n">
         <v>527.466168735</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.3813929606843</v>
+        <v>504.2519012520514</v>
       </c>
       <c r="C3" t="n">
-        <v>7.730284226213337</v>
+        <v>8.38233921892148</v>
       </c>
       <c r="D3" t="n">
-        <v>3415.954672174773</v>
+        <v>3405.49362690836</v>
       </c>
       <c r="E3" t="n">
-        <v>63.83110671261635</v>
+        <v>63.59547899900271</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.9246123365766</v>
+        <v>301.1194744026232</v>
       </c>
       <c r="C4" t="n">
-        <v>8.105587252543629</v>
+        <v>8.724171084047624</v>
       </c>
       <c r="D4" t="n">
-        <v>2757.103636988034</v>
+        <v>2747.456563614975</v>
       </c>
       <c r="E4" t="n">
-        <v>63.83110671261635</v>
+        <v>63.59547899900271</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.8783415023505</v>
+        <v>299.5956142046028</v>
       </c>
       <c r="C5" t="n">
-        <v>8.105587252543629</v>
+        <v>8.724171084047624</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.477166598939</v>
+        <v>1342.521134974411</v>
       </c>
       <c r="E5" t="n">
-        <v>63.83110671261635</v>
+        <v>63.59547899900271</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.8047676784803</v>
+        <v>165.1382467627528</v>
       </c>
       <c r="C6" t="n">
-        <v>8.105587252543629</v>
+        <v>8.724171084047624</v>
       </c>
       <c r="D6" t="n">
-        <v>691.9789919313047</v>
+        <v>702.4187449377242</v>
       </c>
       <c r="E6" t="n">
-        <v>63.83110671261635</v>
+        <v>63.59547899900271</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.4543939032171</v>
+        <v>163.6647386327809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.641443072058606</v>
+        <v>0.6780368332424361</v>
       </c>
       <c r="D7" t="n">
-        <v>681.7954672655014</v>
+        <v>691.4165427698474</v>
       </c>
       <c r="E7" t="n">
-        <v>63.83110671261635</v>
+        <v>63.59547899900271</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.714638149816</v>
+        <v>176.6266720526625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6346706713675738</v>
+        <v>0.67141583407746</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.494817795446</v>
+        <v>2793.400936954</v>
       </c>
       <c r="E8" t="n">
-        <v>15.89450531223969</v>
+        <v>16.17011975775915</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.4543937737698</v>
+        <v>163.6647384987413</v>
       </c>
       <c r="C9" t="n">
-        <v>0.641443072058606</v>
+        <v>0.6780368332424361</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.030435266814</v>
+        <v>2761.402118179813</v>
       </c>
       <c r="E9" t="n">
-        <v>15.89450531223969</v>
+        <v>16.17011975775915</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.7132835012471</v>
+        <v>162.4132001404437</v>
       </c>
       <c r="C10" t="n">
-        <v>0.641443072058606</v>
+        <v>0.6780368332424361</v>
       </c>
       <c r="D10" t="n">
-        <v>678.5800555336831</v>
+        <v>685.9789598846329</v>
       </c>
       <c r="E10" t="n">
-        <v>79.72561202485605</v>
+        <v>79.76559875676186</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.7132835012471</v>
+        <v>162.4132001404437</v>
       </c>
       <c r="C11" t="n">
-        <v>0.641443072058606</v>
+        <v>0.6780368332424361</v>
       </c>
       <c r="D11" t="n">
-        <v>678.5800555336831</v>
+        <v>685.9789598846329</v>
       </c>
       <c r="E11" t="n">
-        <v>88.4868108280757</v>
+        <v>89.48996026114273</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.641443072058606</v>
+        <v>0.6780368332424361</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7022498196359</v>
+        <v>251.7329767484275</v>
       </c>
       <c r="E12" t="n">
-        <v>88.49319221836045</v>
+        <v>89.48512034601744</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.76298525568944</v>
+        <v>47.34220283222942</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>204.7611493980843</v>
+        <v>198.8230762100648</v>
       </c>
       <c r="E13" t="n">
-        <v>73.50685966927907</v>
+        <v>79.7656156853085</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.76298525568944</v>
+        <v>47.34220283222942</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>204.7611493980843</v>
+        <v>198.8230762100648</v>
       </c>
       <c r="E14" t="n">
-        <v>73.50685966927907</v>
+        <v>79.7656156853085</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.75086923139378</v>
+        <v>78.48569001906225</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05087753226836781</v>
+        <v>0.04458103033391168</v>
       </c>
       <c r="D15" t="n">
-        <v>342.364439691262</v>
+        <v>328.655577815199</v>
       </c>
       <c r="E15" t="n">
-        <v>56.21214992446457</v>
+        <v>56.34636994005947</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54.92963518141062</v>
+        <v>54.26396825276021</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05087755195106273</v>
+        <v>0.04457682988987532</v>
       </c>
       <c r="D16" t="n">
-        <v>229.9918046913141</v>
+        <v>227.2019966560258</v>
       </c>
       <c r="E16" t="n">
-        <v>56.21342762522693</v>
+        <v>56.34368182075764</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.20841963101273</v>
+        <v>66.27581214112092</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>285.5886529950503</v>
+        <v>277.4968254348733</v>
       </c>
       <c r="E19" t="n">
         <v>73.54563361700835</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.1409016574339</v>
+        <v>108.9012793505155</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1346495661990541</v>
+        <v>0.1381717864373205</v>
       </c>
       <c r="D20" t="n">
-        <v>2642.099499967983</v>
+        <v>2632.284830860767</v>
       </c>
       <c r="E20" t="n">
-        <v>24.30156041388133</v>
+        <v>27.91964316517222</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.6371663342332</v>
+        <v>107.3922473238477</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1279170878891014</v>
+        <v>0.1312631971154545</v>
       </c>
       <c r="D21" t="n">
-        <v>447.1923968339173</v>
+        <v>450.3845435418402</v>
       </c>
       <c r="E21" t="n">
-        <v>24.30156041388133</v>
+        <v>27.91964316517222</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.72038761093837</v>
+        <v>76.65127906960478</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>333.789262926999</v>
+        <v>320.9389054644353</v>
       </c>
       <c r="E22" t="n">
         <v>583.8302784475239</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.4582701765564</v>
+        <v>50.214817845247</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.03742338231854</v>
+        <v>79.74519717700053</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05355529712459769</v>
+        <v>0.04692740035148598</v>
       </c>
       <c r="D25" t="n">
-        <v>2526.793256124976</v>
+        <v>2505.589956268557</v>
       </c>
       <c r="E25" t="n">
-        <v>31.91049918878184</v>
+        <v>28.42420433028178</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.4291063056346</v>
+        <v>501.5698718194554</v>
       </c>
       <c r="C26" t="n">
-        <v>7.113581209552523</v>
+        <v>7.822116161176036</v>
       </c>
       <c r="D26" t="n">
-        <v>3415.954672174773</v>
+        <v>3405.49362690836</v>
       </c>
       <c r="E26" t="n">
-        <v>57.61120323516597</v>
+        <v>63.59547899900271</v>
       </c>
       <c r="F26" t="n">
-        <v>6.798824385513638</v>
+        <v>6.74406995221704</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.8890605201555</v>
+        <v>184.4760197382199</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4704811314327966</v>
+        <v>0.5065295350127288</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.400027822874</v>
+        <v>2821.862013282625</v>
       </c>
       <c r="E27" t="n">
-        <v>57.61120323516597</v>
+        <v>63.59547899900271</v>
       </c>
       <c r="F27" t="n">
-        <v>7.036010426542928</v>
+        <v>6.982189363120358</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.8972359508755</v>
+        <v>173.9111556152016</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5423785017585991</v>
+        <v>0.5809419581954725</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.494817795446</v>
+        <v>2793.400936954</v>
       </c>
       <c r="E28" t="n">
-        <v>15.89450531223969</v>
+        <v>16.17011975775915</v>
       </c>
       <c r="F28" t="n">
-        <v>6.884438243120315</v>
+        <v>6.85827082368193</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.9020454689534</v>
+        <v>181.847962826961</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4704811314327966</v>
+        <v>0.5065295350127288</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.771125587914</v>
+        <v>2816.092370481197</v>
       </c>
       <c r="E29" t="n">
-        <v>73.50570854740566</v>
+        <v>79.76559875676186</v>
       </c>
       <c r="F29" t="n">
-        <v>7.017212747829772</v>
+        <v>6.969545227214617</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>108.1413740674402</v>
+        <v>108.901445842751</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1346538482296528</v>
+        <v>0.1381674140191454</v>
       </c>
       <c r="D30" t="n">
-        <v>2642.100893261437</v>
+        <v>2632.285252626712</v>
       </c>
       <c r="E30" t="n">
-        <v>73.50570854740566</v>
+        <v>79.76559875676186</v>
       </c>
       <c r="F30" t="n">
-        <v>7.138111045745246</v>
+        <v>7.100998720968763</v>
       </c>
       <c r="G30" t="n">
-        <v>97.93588743687467</v>
+        <v>97.44231296392867</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.03674457949006</v>
+        <v>79.74629745188065</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05355385377518743</v>
+        <v>0.04692949453653777</v>
       </c>
       <c r="D31" t="n">
-        <v>2526.790663860891</v>
+        <v>2505.592530949335</v>
       </c>
       <c r="E31" t="n">
-        <v>49.20405781172293</v>
+        <v>51.84343314698417</v>
       </c>
       <c r="F31" t="n">
-        <v>7.229166864829192</v>
+        <v>7.226340215759654</v>
       </c>
       <c r="G31" t="n">
-        <v>94.72740659193381</v>
+        <v>94.06583157207234</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.47778041222216</v>
+        <v>77.67694140330212</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03185129460409493</v>
+        <v>0.04312701066521177</v>
       </c>
       <c r="D32" t="n">
-        <v>2526.790663860891</v>
+        <v>2505.592530949335</v>
       </c>
       <c r="E32" t="n">
-        <v>17.29343204405212</v>
+        <v>23.42193386455087</v>
       </c>
       <c r="F32" t="n">
-        <v>7.45555628811114</v>
+        <v>7.262722179653305</v>
       </c>
       <c r="G32" t="n">
-        <v>95.70630262147908</v>
+        <v>94.2292654780924</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>27.10991586415236</v>
+        <v>28.97756550464288</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003591205128867148</v>
+        <v>0.00400397893211309</v>
       </c>
       <c r="D33" t="n">
-        <v>2381.822923439514</v>
+        <v>2302.678664614984</v>
       </c>
       <c r="E33" t="n">
-        <v>17.29343204405212</v>
+        <v>23.42193386455087</v>
       </c>
       <c r="F33" t="n">
-        <v>7.950736120549773</v>
+        <v>7.642162108675837</v>
       </c>
       <c r="G33" t="n">
-        <v>93.08477933590838</v>
+        <v>89.67943665206508</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.10991586415236</v>
+        <v>28.97756550464288</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003591205128867148</v>
+        <v>0.00400397893211309</v>
       </c>
       <c r="D34" t="n">
-        <v>113.6515843731152</v>
+        <v>121.4597779816802</v>
       </c>
       <c r="E34" t="n">
-        <v>17.29343204405212</v>
+        <v>23.42193386455087</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.13413236504846</v>
+        <v>31.00279252647005</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>122.7472604459011</v>
+        <v>130.5548933490473</v>
       </c>
       <c r="E35" t="n">
-        <v>17.29343204405212</v>
+        <v>23.42193386455087</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.7087837135858</v>
+        <v>501.7070818674802</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3472.01136355884</v>
+        <v>3472.007608176139</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16418641751898</v>
+        <v>10.1642162461274</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.7087837135858</v>
+        <v>516.7070818674802</v>
       </c>
       <c r="C42" t="n">
-        <v>6.365968062564428</v>
+        <v>6.365041060375116</v>
       </c>
       <c r="D42" t="n">
-        <v>3458.756905376026</v>
+        <v>3458.75990037166</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81654075226463</v>
+        <v>11.81627489354895</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
